--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_05_end.xlsx
@@ -944,11 +944,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  But, like, nothing here screams "vacation!"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  What screams "vacation" to you?
+    <t xml:space="preserve">[name="Utage"]  But, like, nothing here screams 'vacation!'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  What screams 'vacation' to you?
 </t>
   </si>
   <si>
@@ -1012,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  What do we have here? "City Beauty", "Mastering Corporate Management in 100 Days", "How to Become a Fashion Expert"...
+    <t xml:space="preserve">[name="Gavial"]  What do we have here? 'City Beauty', 'Mastering Corporate Management in 100 Days', 'How to Become a Fashion Expert'...
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_05_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_05_end.xlsx
@@ -776,15 +776,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Well, I saw a village here, and I just thought it’d be fun to start a fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  ...I guess that’s our Utage. Yer like a whole ‘nother gal in a fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Aww, I’m sorry...
+    <t xml:space="preserve">[name="Utage"]  Well, I saw a village here, and I just thought it'd be fun to start a fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  ...I guess that's our Utage. Yer like a whole 'nother gal in a fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Aww, I'm sorry...
 </t>
   </si>
   <si>
@@ -792,27 +792,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Honestly, I don’t really know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Urgh, my nails are ruined. I’m so pissed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  And just where the hell did my nail kit go? Now I’m twice as pissed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  And I’m hella gross and sweaty after that fight. Plus, the air here is so humid, my clothes are totally soaked. Now I’m three times as pissed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  And I’m, like, just walking around. Why do these Archosauria people keep coming up to me, picking fights? Now I’m four times as pissed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  And I only tagged along ‘cause I heard this would be a nice place for a vacation. This is totally not a vacation spot!
+    <t xml:space="preserve">[name="Utage"]  Honestly, I don't really know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Urgh, my nails are ruined. I'm so pissed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  And just where the hell did my nail kit go? Now I'm twice as pissed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  And I'm hella gross and sweaty after that fight. Plus, the air here is so humid, my clothes are totally soaked. Now I'm three times as pissed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  And I'm, like, just walking around. Why do these Archosauria people keep coming up to me, picking fights? Now I'm four times as pissed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  And I only tagged along 'cause I heard this would be a nice place for a vacation. This is totally not a vacation spot!
 </t>
   </si>
   <si>
@@ -844,23 +844,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  Also, I spotted the Great Wood Tribe’s leader among your people, so I asked him. Apparently you’re their leader now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  I’m what?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Basically, you defeated the tribe’s leader, and they’re following you around because they look up to you as their leader now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Huh? They don’t even understand a word I’m saying!  I thought they were just tagging along for fun!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  That’s what happens when you’re strong enough here.
+    <t xml:space="preserve">[name="Inam"]  Also, I spotted the Great Wood Tribe's leader among your people, so I asked him. Apparently you're their leader now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  I'm what?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Basically, you defeated the tribe's leader, and they're following you around because they look up to you as their leader now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Huh? They don't even understand a word I'm saying!  I thought they were just tagging along for fun!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  That's what happens when you're strong enough here.
 </t>
   </si>
   <si>
@@ -868,7 +868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="It’s your mess. Figure it out yourself.;......;Might as well stick around and lead them.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="It's your mess. Figure it out yourself.;......;Might as well stick around and lead them.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -876,15 +876,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Nng... Don’t look at me like that, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  I didn’t mean to...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Eh? I don’t wanna! Life without TV and AC? You might as well just kill me.
+    <t xml:space="preserve">[name="Utage"]  Nng... Don't look at me like that, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  I didn't mean to...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Eh? I don't wanna! Life without TV and AC? You might as well just kill me.
 </t>
   </si>
   <si>
@@ -892,15 +892,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Blaze is probably fine. I can’t imagine anything slowing her down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Me neither. Oh, yeah, Baws, what’s the plan now? We goin’ to the Temple fer that ceremony Gavial was talkin’ about?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, right, you two haven’t heard yet. Doctor, why don’t you tell them?
+    <t xml:space="preserve">[name="Utage"]  Blaze is probably fine. I can't imagine anything slowing her down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Me neither. Oh, yeah, Baws, what's the plan now? We goin' to the Temple fer that ceremony Gavial was talkin' about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh, right, you two haven't heard yet. Doctor, why don't you tell them?
 </t>
   </si>
   <si>
@@ -908,15 +908,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Croissant"]  Uh huh. Alrighty then, so we gon’ be lookin’ fer this Zumama to get yer engine back?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  That’s right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Eh? You mean the ceremony’s over already?
+    <t xml:space="preserve">[name="Croissant"]  Uh huh. Alrighty then, so we gon' be lookin' fer this Zumama to get yer engine back?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  That's right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Eh? You mean the ceremony's over already?
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  Whatever, it doesn’t sound like something I’d care about anyway.
+    <t xml:space="preserve">[name="Utage"]  Whatever, it doesn't sound like something I'd care about anyway.
 </t>
   </si>
   <si>
@@ -936,11 +936,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Huh? You don’t think this place is great?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Well, actually, I guess, yeah, it’s great!
+    <t xml:space="preserve">[name="Gavial"]  Huh? You don't think this place is great?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Well, actually, I guess, yeah, it's great!
 </t>
   </si>
   <si>
@@ -956,31 +956,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Utage"]  I even got myself a new swimsuit! I’ve been wearing it underneath my outfit since before we left!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Eh, and here I tagged along just ‘cause I got nothin’ else to do...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Uh, I never said there’s anything like that around here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Didn’t you say we were gonna play in the water?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Well yeah, that we can do. There’s a huge waterfall deep in the rainforest.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  And since we’re heading to Zumama’s tribe, we’ll pass by the waterfall for sure.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hell, I brought my swimsuit too. I just haven’t taken it out yet.
+    <t xml:space="preserve">[name="Utage"]  I even got myself a new swimsuit! I've been wearing it underneath my outfit since before we left!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Eh, and here I tagged along just 'cause I got nothin' else to do...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Uh, I never said there's anything like that around here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Didn't you say we were gonna play in the water?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Well yeah, that we can do. There's a huge waterfall deep in the rainforest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  And since we're heading to Zumama's tribe, we'll pass by the waterfall for sure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hell, I brought my swimsuit too. I just haven't taken it out yet.
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  Well, it looks like you found who you’re looking for.
+    <t xml:space="preserve">[name="Inam"]  Well, it looks like you found who you're looking for.
 </t>
   </si>
   <si>
@@ -1000,11 +1000,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  Oh I just remembered, where’s Tomimi? I thought she was supposed to be with you guys.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  No idea. I think she had something else to take care of. We’ll group up with her later.
+    <t xml:space="preserve">[name="Inam"]  Oh I just remembered, where's Tomimi? I thought she was supposed to be with you guys.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  No idea. I think she had something else to take care of. We'll group up with her later.
 </t>
   </si>
   <si>
@@ -1020,15 +1020,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  She’s been learning Sargonian and what life in the outside world is like. After I taught her the basics, of course.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Hm, I can’t imagine these books help much with her Sargonian.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  You’re right. But that’s really how she learned it. Letter by letter, word by word.
+    <t xml:space="preserve">[name="Inam"]  She's been learning Sargonian and what life in the outside world is like. After I taught her the basics, of course.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Hm, I can't imagine these books help much with her Sargonian.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  You're right. But that's really how she learned it. Letter by letter, word by word.
 </t>
   </si>
   <si>
@@ -1036,35 +1036,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  That’s also why I decided to teach her Sargonian.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  You know, Gavial, she’s really working hard to get to where you are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  ...You don’t need to tell me. I know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  But well, I don’t know that much about what it’s like outside either. Besides, I can only bring so many books with me, so I don’t really know whether she’s learning anything useful from them, haha.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  ...No wonder there’s always something weird about her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hang on, don’t tell me you’re the one who taught Zumama Sargonian too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Nope. I’m pretty curious about that myself. She did have me find her books on machinery, but it was like she just picked up Sargonian out of nowhere.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  And she’s even teaching it to her tribe.
+    <t xml:space="preserve">[name="Inam"]  That's also why I decided to teach her Sargonian.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  You know, Gavial, she's really working hard to get to where you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  ...You don't need to tell me. I know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  But well, I don't know that much about what it's like outside either. Besides, I can only bring so many books with me, so I don't really know whether she's learning anything useful from them, haha.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  ...No wonder there's always something weird about her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hang on, don't tell me you're the one who taught Zumama Sargonian too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Nope. I'm pretty curious about that myself. She did have me find her books on machinery, but it was like she just picked up Sargonian out of nowhere.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  And she's even teaching it to her tribe.
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="She’s quite ambitious.;......;How much for this rock?",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="She's quite ambitious.;......;How much for this rock?",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1084,19 +1084,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hm, alright. I’ll settle this my way.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Since you’re a new customer, I’ll let you have it for 300 dinar.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  That’s the look of a Doctor who just doesn’t care.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Croissant"]  Eh? T’ain’t nothin’ wrong with her teachin’ Sargonian. If’n people here could talk with folks out there, they’d live a lot better.
+    <t xml:space="preserve">[name="Gavial"]  Hm, alright. I'll settle this my way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Since you're a new customer, I'll let you have it for 300 dinar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  That's the look of a Doctor who just doesn't care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Croissant"]  Eh? T'ain't nothin' wrong with her teachin' Sargonian. If'n people here could talk with folks out there, they'd live a lot better.
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  I don’t think you city folks would understand, though.
+    <t xml:space="preserve">[name="Inam"]  I don't think you city folks would understand, though.
 </t>
   </si>
   <si>
@@ -1124,11 +1124,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Inam"]  *Yawn*... I’m tired... time for a nap.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Inam"]  Here at our tribe, anything we leave out’s for trade. If something catches your eye, have Gavial translate for you.
+    <t xml:space="preserve">[name="Inam"]  *Yawn*... I'm tired... time for a nap.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Inam"]  Here at our tribe, anything we leave out's for trade. If something catches your eye, have Gavial translate for you.
 </t>
   </si>
   <si>
@@ -1140,7 +1140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’ve got a favor to ask you, too.", values="1")]
+    <t xml:space="preserve">[Decision(options="I've got a favor to ask you, too.", values="1")]
 </t>
   </si>
   <si>
